--- a/etc/220611 staking luck boost.xlsx
+++ b/etc/220611 staking luck boost.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5837808-D229-410B-9D39-B48BD5675074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2D575-10AD-4C85-B36F-07C9EBBBE587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9B0E615C-85DC-4B60-8A6F-36EF161379DA}"/>
   </bookViews>
@@ -2834,8 +2834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CD3EE-6FBC-43A3-9924-DC89B731C6AB}">
   <dimension ref="A2:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/etc/220611 staking luck boost.xlsx
+++ b/etc/220611 staking luck boost.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D2D575-10AD-4C85-B36F-07C9EBBBE587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9B0E615C-85DC-4B60-8A6F-36EF161379DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,8 +34,130 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Luck理論値</t>
+    <rPh sb="4" eb="7">
+      <t>リロンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv-up</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Staking</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>astr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>staking量に応じて指数関数的にluckが上昇する</t>
+    <rPh sb="7" eb="8">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>シスウカンスウテキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつ、Lvが上がるとluck上昇値も増加する。</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv1でもstakingで十分有利になるよう、Lvキャップは緩めに、baseを高めに設定する。</t>
+    <rPh sb="13" eb="15">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ユウリ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ユル</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv1, max staking=64000で+2 luck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv20, max 64000で+4 luck</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luck_addMax = 300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luck_addMin = 150</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luck_add = luck_addMin + (luck_addMax - luck_addMin) * (Lv-1)/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,12 +175,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +203,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -111,6 +245,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -388,6 +523,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -395,7 +531,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -445,6 +580,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1304,6 +1440,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1311,6 +1448,585 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9174917759378945E-2"/>
+          <c:y val="3.5555551030869194E-2"/>
+          <c:w val="0.92598803625344983"/>
+          <c:h val="0.88946015882158158"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lv20</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-14DE-4D30-839B-65C5CE6A3B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lv1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14DE-4D30-839B-65C5CE6A3B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LvX</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.789473684210527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.578947368421055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>122.36842105263159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.15789473684211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>244.73684210526318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>285.5263157894737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326.31578947368422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-14DE-4D30-839B-65C5CE6A3B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="196908239"/>
+        <c:axId val="196914479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="196908239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196914479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="196914479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196908239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81851142452506509"/>
+          <c:y val="0.73494876513815122"/>
+          <c:w val="8.8922399509504688E-2"/>
+          <c:h val="0.1549444511386914"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1426,6 +2142,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1943,6 +2699,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2527,6 +3799,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2831,11 +4138,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452CD3EE-6FBC-43A3-9924-DC89B731C6AB}">
-  <dimension ref="A2:D105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3793,7 +5100,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
-        <f t="shared" ref="A69:A105" si="4">A68*1.5</f>
+        <f t="shared" ref="A69:A132" si="4">A68*1.5</f>
         <v>209407919489407.59</v>
       </c>
       <c r="B69">
@@ -3801,7 +5108,7 @@
         <v>628223758467222.75</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:C105" si="5">C68+50</f>
+        <f t="shared" ref="C69:C132" si="5">C68+50</f>
         <v>3350</v>
       </c>
     </row>
@@ -4307,6 +5614,1364 @@
       <c r="C105">
         <f t="shared" si="5"/>
         <v>5150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>6.8607198709067534E+20</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:B169" si="6">B105+A106</f>
+        <v>2.0582159612720259E+21</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="5"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>1.0291079806360129E+21</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="6"/>
+        <v>3.0873239419080388E+21</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="5"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>1.5436619709540194E+21</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="6"/>
+        <v>4.6309859128620582E+21</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="5"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>2.3154929564310291E+21</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="6"/>
+        <v>6.9464788692930879E+21</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="5"/>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>3.4732394346465439E+21</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="6"/>
+        <v>1.0419718303939633E+22</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="5"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>5.2098591519698164E+21</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="6"/>
+        <v>1.5629577455909449E+22</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="5"/>
+        <v>5450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>7.8147887279547246E+21</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="6"/>
+        <v>2.3444366183864176E+22</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="5"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>1.1722183091932088E+22</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="6"/>
+        <v>3.5166549275796264E+22</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="5"/>
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>1.7583274637898132E+22</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="6"/>
+        <v>5.2749823913694394E+22</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>2.6374911956847197E+22</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="6"/>
+        <v>7.9124735870541591E+22</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="5"/>
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>3.9562367935270795E+22</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="6"/>
+        <v>1.1868710380581239E+23</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="5"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>5.9343551902906193E+22</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="6"/>
+        <v>1.7803065570871858E+23</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="5"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>8.901532785435929E+22</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="6"/>
+        <v>2.6704598356307787E+23</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="5"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>1.3352299178153893E+23</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="6"/>
+        <v>4.0056897534461677E+23</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="5"/>
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>2.0028448767230838E+23</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="6"/>
+        <v>6.0085346301692515E+23</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="5"/>
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>3.0042673150846258E+23</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="6"/>
+        <v>9.012801945253877E+23</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="5"/>
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>4.5064009726269385E+23</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="6"/>
+        <v>1.3519202917880815E+24</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="5"/>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>6.7596014589404074E+23</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="6"/>
+        <v>2.0278804376821222E+24</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="5"/>
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>1.0139402188410611E+24</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="6"/>
+        <v>3.0418206565231831E+24</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="5"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>1.5209103282615915E+24</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="6"/>
+        <v>4.5627309847847746E+24</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="5"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>2.2813654923923873E+24</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="6"/>
+        <v>6.8440964771771619E+24</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="5"/>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>3.4220482385885809E+24</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="6"/>
+        <v>1.0266144715765743E+25</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="5"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>5.1330723578828717E+24</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="6"/>
+        <v>1.5399217073648616E+25</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="5"/>
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>7.6996085368243081E+24</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="6"/>
+        <v>2.3098825610472924E+25</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="5"/>
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>1.1549412805236462E+25</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="6"/>
+        <v>3.4648238415709384E+25</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="5"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>1.7324119207854692E+25</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="6"/>
+        <v>5.1972357623564076E+25</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="5"/>
+        <v>6450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <f t="shared" si="4"/>
+        <v>2.5986178811782038E+25</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="6"/>
+        <v>7.7958536435346119E+25</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="5"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <f t="shared" ref="A133:A196" si="7">A132*1.5</f>
+        <v>3.8979268217673059E+25</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="6"/>
+        <v>1.1693780465301919E+26</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ref="C133:C196" si="8">C132+50</f>
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <f t="shared" si="7"/>
+        <v>5.8468902326509593E+25</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>1.7540670697952878E+26</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="8"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <f t="shared" si="7"/>
+        <v>8.770335348976439E+25</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>2.6311006046929317E+26</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="8"/>
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <f t="shared" si="7"/>
+        <v>1.3155503023464658E+26</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>3.9466509070393977E+26</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="8"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <f t="shared" si="7"/>
+        <v>1.9733254535196989E+26</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>5.9199763605590966E+26</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="8"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <f t="shared" si="7"/>
+        <v>2.9599881802795483E+26</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="6"/>
+        <v>8.8799645408386452E+26</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="8"/>
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <f t="shared" si="7"/>
+        <v>4.4399822704193226E+26</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="6"/>
+        <v>1.3319946811257968E+27</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="8"/>
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <f t="shared" si="7"/>
+        <v>6.6599734056289842E+26</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="6"/>
+        <v>1.9979920216886954E+27</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="8"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <f t="shared" si="7"/>
+        <v>9.9899601084434771E+26</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="6"/>
+        <v>2.9969880325330431E+27</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="8"/>
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <f t="shared" si="7"/>
+        <v>1.4984940162665216E+27</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="6"/>
+        <v>4.4954820487995647E+27</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="8"/>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <f t="shared" si="7"/>
+        <v>2.2477410243997823E+27</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="6"/>
+        <v>6.7432230731993473E+27</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="8"/>
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <f t="shared" si="7"/>
+        <v>3.3716115365996736E+27</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="6"/>
+        <v>1.0114834609799021E+28</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="8"/>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <f t="shared" si="7"/>
+        <v>5.0574173048995107E+27</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="6"/>
+        <v>1.5172251914698531E+28</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="8"/>
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <f t="shared" si="7"/>
+        <v>7.5861259573492656E+27</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="6"/>
+        <v>2.2758377872047797E+28</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="8"/>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <f t="shared" si="7"/>
+        <v>1.1379188936023898E+28</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="6"/>
+        <v>3.4137566808071695E+28</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="8"/>
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <f t="shared" si="7"/>
+        <v>1.7068783404035848E+28</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="6"/>
+        <v>5.1206350212107545E+28</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="8"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <f t="shared" si="7"/>
+        <v>2.5603175106053772E+28</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="6"/>
+        <v>7.6809525318161321E+28</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="8"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>3.8404762659080661E+28</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="6"/>
+        <v>1.1521428797724198E+29</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="8"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>5.7607143988620991E+28</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="6"/>
+        <v>1.7282143196586296E+29</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="8"/>
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>8.6410715982931482E+28</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="6"/>
+        <v>2.5923214794879445E+29</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <f t="shared" si="7"/>
+        <v>1.2961607397439722E+29</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="6"/>
+        <v>3.8884822192319171E+29</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="8"/>
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <f t="shared" si="7"/>
+        <v>1.9442411096159585E+29</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="6"/>
+        <v>5.8327233288478756E+29</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="8"/>
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <f t="shared" si="7"/>
+        <v>2.9163616644239378E+29</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="6"/>
+        <v>8.7490849932718134E+29</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="8"/>
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <f t="shared" si="7"/>
+        <v>4.3745424966359067E+29</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="6"/>
+        <v>1.312362748990772E+30</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="8"/>
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <f t="shared" si="7"/>
+        <v>6.56181374495386E+29</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="6"/>
+        <v>1.968544123486158E+30</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="8"/>
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <f t="shared" si="7"/>
+        <v>9.84272061743079E+29</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="6"/>
+        <v>2.952816185229237E+30</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="8"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <f t="shared" si="7"/>
+        <v>1.4764080926146185E+30</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="6"/>
+        <v>4.4292242778438555E+30</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="8"/>
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <f t="shared" si="7"/>
+        <v>2.2146121389219278E+30</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="6"/>
+        <v>6.6438364167657833E+30</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="8"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <f t="shared" si="7"/>
+        <v>3.3219182083828916E+30</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="6"/>
+        <v>9.9657546251486749E+30</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="8"/>
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <f t="shared" si="7"/>
+        <v>4.9828773125743375E+30</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="6"/>
+        <v>1.4948631937723012E+31</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <f t="shared" si="7"/>
+        <v>7.4743159688615062E+30</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="6"/>
+        <v>2.2422947906584517E+31</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="8"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <f t="shared" si="7"/>
+        <v>1.1211473953292259E+31</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="6"/>
+        <v>3.3634421859876778E+31</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="8"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <f t="shared" si="7"/>
+        <v>1.6817210929938389E+31</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="6"/>
+        <v>5.0451632789815168E+31</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="8"/>
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <f t="shared" si="7"/>
+        <v>2.5225816394907584E+31</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="6"/>
+        <v>7.5677449184722751E+31</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="8"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <f t="shared" si="7"/>
+        <v>3.7838724592361376E+31</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="6"/>
+        <v>1.1351617377708413E+32</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="8"/>
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <f t="shared" si="7"/>
+        <v>5.6758086888542064E+31</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="6"/>
+        <v>1.702742606656262E+32</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="8"/>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <f t="shared" si="7"/>
+        <v>8.51371303328131E+31</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="6"/>
+        <v>2.554113909984393E+32</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="8"/>
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <f t="shared" si="7"/>
+        <v>1.2770569549921965E+32</v>
+      </c>
+      <c r="B170">
+        <f t="shared" ref="B170:B202" si="9">B169+A170</f>
+        <v>3.8311708649765895E+32</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="8"/>
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <f t="shared" si="7"/>
+        <v>1.9155854324882947E+32</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="9"/>
+        <v>5.7467562974648842E+32</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="8"/>
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <f t="shared" si="7"/>
+        <v>2.8733781487324421E+32</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="9"/>
+        <v>8.6201344461973264E+32</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="8"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <f t="shared" si="7"/>
+        <v>4.3100672230986632E+32</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="9"/>
+        <v>1.293020166929599E+33</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="8"/>
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <f t="shared" si="7"/>
+        <v>6.4651008346479948E+32</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="9"/>
+        <v>1.9395302503943985E+33</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="8"/>
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <f t="shared" si="7"/>
+        <v>9.6976512519719925E+32</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="9"/>
+        <v>2.9092953755915978E+33</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="8"/>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <f t="shared" si="7"/>
+        <v>1.4546476877957989E+33</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="9"/>
+        <v>4.3639430633873963E+33</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="8"/>
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <f t="shared" si="7"/>
+        <v>2.1819715316936982E+33</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="9"/>
+        <v>6.5459145950810945E+33</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="8"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <f t="shared" si="7"/>
+        <v>3.2729572975405473E+33</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="9"/>
+        <v>9.8188718926216412E+33</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="8"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <f t="shared" si="7"/>
+        <v>4.9094359463108206E+33</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="9"/>
+        <v>1.4728307838932462E+34</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="8"/>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <f t="shared" si="7"/>
+        <v>7.3641539194662309E+33</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="9"/>
+        <v>2.2092461758398693E+34</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="8"/>
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <f t="shared" si="7"/>
+        <v>1.1046230879199346E+34</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="9"/>
+        <v>3.3138692637598039E+34</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="8"/>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <f t="shared" si="7"/>
+        <v>1.656934631879902E+34</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="9"/>
+        <v>4.9708038956397061E+34</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <f t="shared" si="7"/>
+        <v>2.485401947819853E+34</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="9"/>
+        <v>7.4562058434595591E+34</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="8"/>
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <f t="shared" si="7"/>
+        <v>3.7281029217297796E+34</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="9"/>
+        <v>1.1184308765189338E+35</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="8"/>
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <f t="shared" si="7"/>
+        <v>5.5921543825946691E+34</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="9"/>
+        <v>1.6776463147784006E+35</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="8"/>
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <f t="shared" si="7"/>
+        <v>8.3882315738920032E+34</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="9"/>
+        <v>2.516469472167601E+35</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="8"/>
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <f t="shared" si="7"/>
+        <v>1.2582347360838005E+35</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="9"/>
+        <v>3.7747042082514016E+35</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="8"/>
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <f t="shared" si="7"/>
+        <v>1.8873521041257008E+35</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="9"/>
+        <v>5.6620563123771024E+35</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="8"/>
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <f t="shared" si="7"/>
+        <v>2.8310281561885512E+35</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="9"/>
+        <v>8.4930844685656537E+35</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="8"/>
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <f t="shared" si="7"/>
+        <v>4.2465422342828268E+35</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="9"/>
+        <v>1.273962670284848E+36</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="8"/>
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <f t="shared" si="7"/>
+        <v>6.3698133514242399E+35</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="9"/>
+        <v>1.9109440054272721E+36</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="8"/>
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <f t="shared" si="7"/>
+        <v>9.5547200271363606E+35</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="9"/>
+        <v>2.8664160081409082E+36</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="8"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <f t="shared" si="7"/>
+        <v>1.4332080040704541E+36</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="9"/>
+        <v>4.2996240122113623E+36</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="8"/>
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <f t="shared" si="7"/>
+        <v>2.1498120061056811E+36</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="9"/>
+        <v>6.4494360183170434E+36</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="8"/>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <f t="shared" si="7"/>
+        <v>3.2247180091585217E+36</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="9"/>
+        <v>9.6741540274755657E+36</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="8"/>
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <f t="shared" si="7"/>
+        <v>4.8370770137377828E+36</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="9"/>
+        <v>1.4511231041213348E+37</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="8"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <f t="shared" ref="A197:A202" si="10">A196*1.5</f>
+        <v>7.2556155206066742E+36</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="9"/>
+        <v>2.1766846561820023E+37</v>
+      </c>
+      <c r="C197">
+        <f t="shared" ref="C197:C202" si="11">C196+50</f>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <f t="shared" si="10"/>
+        <v>1.0883423280910011E+37</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="9"/>
+        <v>3.2650269842730036E+37</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="11"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <f t="shared" si="10"/>
+        <v>1.6325134921365018E+37</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="9"/>
+        <v>4.8975404764095055E+37</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="11"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <f t="shared" si="10"/>
+        <v>2.4487702382047527E+37</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="9"/>
+        <v>7.3463107146142577E+37</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="11"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <f t="shared" si="10"/>
+        <v>3.6731553573071289E+37</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="9"/>
+        <v>1.1019466071921386E+38</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="11"/>
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <f t="shared" si="10"/>
+        <v>5.5097330359606928E+37</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="9"/>
+        <v>1.6529199107882078E+38</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="11"/>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -4315,4 +6980,321 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.25" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H10" si="0">G3/2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I10" si="1">(G3-H3)*($I$2-1)/($G$2-$H$2)+H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="1"/>
+        <v>40.789473684210527</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="F5">
+        <f>F4*$F$1</f>
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <f>G4+50</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>81.578947368421055</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F11" si="2">F5*$F$1</f>
+        <v>4000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G9" si="3">G5+50</f>
+        <v>150</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>122.36842105263159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>163.15789473684211</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C8">
+        <f>SUM(C4:C7)</f>
+        <v>1350</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D4:D7)</f>
+        <v>2000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>16000</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>203.94736842105263</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>244.73684210526318</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>285.5263157894737</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>128000</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11/2</f>
+        <v>200</v>
+      </c>
+      <c r="I11" s="1">
+        <f>(G11-H11)*($I$2-1)/($G$2-$H$2)+H11</f>
+        <v>326.31578947368422</v>
+      </c>
+    </row>
+    <row r="19" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+    </row>
+    <row r="29" spans="11:17" x14ac:dyDescent="0.4">
+      <c r="K29">
+        <f>150+(300-150)*12/19</f>
+        <v>244.73684210526318</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>